--- a/biology/Botanique/Dicranum_scoparium/Dicranum_scoparium.xlsx
+++ b/biology/Botanique/Dicranum_scoparium/Dicranum_scoparium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dicranum scoparium, le Dicrane en balai, est une espèce de mousses de la famille des Dicranaceae fréquemment rencontrée dans les sous-bois. Elle pousse en Europe, Asie, Amérique du Nord, Nouvelle-Zélande et Australie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dicranum scoparium, le Dicrane en balai, est une espèce de mousses de la famille des Dicranaceae fréquemment rencontrée dans les sous-bois. Elle pousse en Europe, Asie, Amérique du Nord, Nouvelle-Zélande et Australie.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette mousse forme des touffes à tiges dressées, de 3 à 10 cm de haut[3]. Sa couleur dépend de l'intensité de l'éclairement, de l'humidité et de la nature du substrat : vert foncé dans les ombrages humides des sous-bois, elle sera jaune dans les milieux secs et calcaires[3].  
-Les feuilles étroites, courbées toutes du même côté et effilées à la pointe, mesurent de 5 à 8 mm[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette mousse forme des touffes à tiges dressées, de 3 à 10 cm de haut. Sa couleur dépend de l'intensité de l'éclairement, de l'humidité et de la nature du substrat : vert foncé dans les ombrages humides des sous-bois, elle sera jaune dans les milieux secs et calcaires.  
+Les feuilles étroites, courbées toutes du même côté et effilées à la pointe, mesurent de 5 à 8 mm.
 			Surface d'une touffe et des capsules
 			Rameau feuillé isolé
 </t>
@@ -545,9 +559,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette mousse est indifférente à la quantité de lumière bien qu'elle préfère les sous-bois. Elle est aussi indifférente à la nature du substrat : elle pousse aussi bien sur des rochers que sur des sols sédimentaires sableux ou limoneux, ou encore sur du bois pourrissant. Elle exige cependant au moins une petite couche d'humus[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette mousse est indifférente à la quantité de lumière bien qu'elle préfère les sous-bois. Elle est aussi indifférente à la nature du substrat : elle pousse aussi bien sur des rochers que sur des sols sédimentaires sableux ou limoneux, ou encore sur du bois pourrissant. Elle exige cependant au moins une petite couche d'humus.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (25 janv. 2013)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (25 janv. 2013) :
 non-classé Dicranum scoparium var. orthophyllum</t>
         </is>
       </c>
